--- a/data/实验1.xlsx
+++ b/data/实验1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20040" windowHeight="16620"/>
+    <workbookView windowWidth="21274" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -207,7 +207,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +224,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -382,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -559,18 +546,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -584,24 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,46 +712,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,97 +766,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1109,8 @@
       <sheetName val="产品合同名称"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="3">
           <cell r="A3" t="str">
             <v>佳祺01号1期</v>
@@ -10457,7 +10414,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10721,17 +10678,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA235"/>
+  <dimension ref="A1:BA234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F27:F29"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -10788,7 +10745,7 @@
     <col min="54" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.5" spans="1:53">
+    <row r="1" s="1" customFormat="1" ht="28.3" spans="1:53">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -11081,7 +11038,7 @@
       <c r="Z3" s="49"/>
       <c r="AA3" s="48"/>
       <c r="AB3" s="50">
-        <f t="shared" ref="AB3:AB31" si="0">Z3*0.8</f>
+        <f>Z3*0.8</f>
         <v>0</v>
       </c>
       <c r="AC3" s="24"/>
@@ -11089,11 +11046,11 @@
       <c r="AE3" s="52"/>
       <c r="AF3" s="53"/>
       <c r="AG3" s="55">
-        <f t="shared" ref="AG3:AG29" si="1">Z3*20%</f>
+        <f>Z3*20%</f>
         <v>0</v>
       </c>
       <c r="AH3" s="57">
-        <f t="shared" ref="AH3:AH29" si="2">AB3-AF3</f>
+        <f>AB3-AF3</f>
         <v>0</v>
       </c>
       <c r="AI3" s="26"/>
@@ -11141,7 +11098,7 @@
       <c r="Z4" s="49"/>
       <c r="AA4" s="48"/>
       <c r="AB4" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AB4:AB30" si="0">Z4*0.8</f>
         <v>0</v>
       </c>
       <c r="AC4" s="24"/>
@@ -11149,11 +11106,11 @@
       <c r="AE4" s="52"/>
       <c r="AF4" s="53"/>
       <c r="AG4" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AG4:AG28" si="1">Z4*20%</f>
         <v>0</v>
       </c>
       <c r="AH4" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AH4:AH28" si="2">AB4-AF4</f>
         <v>0</v>
       </c>
       <c r="AI4" s="26"/>
@@ -12648,14 +12605,8 @@
       <c r="AD29" s="51"/>
       <c r="AE29" s="52"/>
       <c r="AF29" s="53"/>
-      <c r="AG29" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="58"/>
       <c r="AI29" s="26"/>
       <c r="AJ29" s="35"/>
       <c r="AK29" s="35"/>
@@ -12754,10 +12705,7 @@
       <c r="Y31" s="48"/>
       <c r="Z31" s="49"/>
       <c r="AA31" s="48"/>
-      <c r="AB31" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AB31" s="50"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="51"/>
       <c r="AE31" s="52"/>
@@ -23133,59 +23081,8 @@
       <c r="AV234" s="41"/>
       <c r="AW234" s="41"/>
     </row>
-    <row r="235" spans="1:49">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="26"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="30"/>
-      <c r="G235" s="26"/>
-      <c r="H235" s="26"/>
-      <c r="I235" s="26"/>
-      <c r="J235" s="26"/>
-      <c r="K235" s="35"/>
-      <c r="L235" s="36"/>
-      <c r="M235" s="37"/>
-      <c r="N235" s="38"/>
-      <c r="O235" s="36"/>
-      <c r="P235" s="36"/>
-      <c r="Q235" s="36"/>
-      <c r="R235" s="36"/>
-      <c r="S235" s="41"/>
-      <c r="T235" s="42"/>
-      <c r="U235" s="42"/>
-      <c r="V235" s="42"/>
-      <c r="W235" s="42"/>
-      <c r="X235" s="42"/>
-      <c r="Y235" s="48"/>
-      <c r="Z235" s="49"/>
-      <c r="AA235" s="48"/>
-      <c r="AB235" s="50"/>
-      <c r="AC235" s="24"/>
-      <c r="AD235" s="51"/>
-      <c r="AE235" s="52"/>
-      <c r="AF235" s="53"/>
-      <c r="AG235" s="53"/>
-      <c r="AH235" s="58"/>
-      <c r="AI235" s="26"/>
-      <c r="AJ235" s="35"/>
-      <c r="AK235" s="35"/>
-      <c r="AL235" s="35"/>
-      <c r="AM235" s="35"/>
-      <c r="AN235" s="41"/>
-      <c r="AO235" s="41"/>
-      <c r="AP235" s="41"/>
-      <c r="AQ235" s="41"/>
-      <c r="AR235" s="41"/>
-      <c r="AS235" s="41"/>
-      <c r="AT235" s="41"/>
-      <c r="AU235" s="41"/>
-      <c r="AV235" s="41"/>
-      <c r="AW235" s="41"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BA31">
+  <autoFilter ref="A1:BA30">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
